--- a/tmp/IPARM_cons.xlsx
+++ b/tmp/IPARM_cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlam\Desktop\test\UNAL_Consolidacion\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C70B0-6F7B-4A66-8038-BD52D8556373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9526567-7886-4146-AF2B-72611A260768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Cc</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Peso de bloque más piedra porosa asumido en 250 g</t>
-  </si>
-  <si>
-    <t>No hay contenido de agua inicial</t>
   </si>
   <si>
     <r>
@@ -193,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +200,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,17 +239,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,35 +539,35 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -597,12 +585,12 @@
       <c r="E2" s="1">
         <v>117.09099999999999</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -620,12 +608,12 @@
       <c r="E3" s="1">
         <v>94.013000000000005</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -643,14 +631,14 @@
       <c r="E4" s="1">
         <v>119.806</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -668,14 +656,14 @@
       <c r="E5" s="1">
         <v>87.146000000000001</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -693,14 +681,14 @@
       <c r="E6" s="1">
         <v>156.357</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -709,17 +697,23 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="C7" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>182.47499999999999</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -737,21 +731,21 @@
       <c r="E8" s="1">
         <v>114.93300000000001</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>7.3999999999999996E-2</v>
@@ -762,24 +756,24 @@
       <c r="E9" s="1">
         <v>182.21199999999999</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/tmp/IPARM_cons.xlsx
+++ b/tmp/IPARM_cons.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlam\Desktop\test\UNAL_Consolidacion\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab Geotecnia\Desktop\Cosas de Juan\UNAL_Consolidacion\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9526567-7886-4146-AF2B-72611A260768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0660885-9BC1-4720-9805-D8CC5A464C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,6 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -190,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,7 +213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,12 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,10 +262,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,25 +568,25 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -570,10 +599,10 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
@@ -582,7 +611,7 @@
       <c r="D2" s="1">
         <v>0.66300000000000003</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>117.09099999999999</v>
       </c>
       <c r="F2" s="5"/>
@@ -593,19 +622,19 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E3" s="1">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="E3" s="7">
         <v>94.013000000000005</v>
       </c>
       <c r="F3" s="5"/>
@@ -616,20 +645,20 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
+      <c r="C4" s="8">
+        <v>2.3E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E4" s="1">
-        <v>119.806</v>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E4" s="7">
+        <v>90.200999999999993</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -641,20 +670,20 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>-0.17399999999999999</v>
+      <c r="C5" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.393</v>
-      </c>
-      <c r="E5" s="1">
-        <v>87.146000000000001</v>
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>55.5</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -666,20 +695,20 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E6" s="1">
-        <v>156.357</v>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>132.84100000000001</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -691,20 +720,20 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>182.47499999999999</v>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>140.67599999999999</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
@@ -716,20 +745,20 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.121</v>
       </c>
       <c r="D8" s="1">
         <v>1.6379999999999999</v>
       </c>
-      <c r="E8" s="1">
-        <v>114.93300000000001</v>
+      <c r="E8" s="7">
+        <v>123.117</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
@@ -741,10 +770,10 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1">
@@ -753,8 +782,8 @@
       <c r="D9" s="1">
         <v>0.35899999999999999</v>
       </c>
-      <c r="E9" s="1">
-        <v>182.21199999999999</v>
+      <c r="E9" s="7">
+        <v>143.74</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>16</v>

--- a/tmp/IPARM_cons.xlsx
+++ b/tmp/IPARM_cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab Geotecnia\Desktop\Cosas de Juan\UNAL_Consolidacion\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0660885-9BC1-4720-9805-D8CC5A464C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D3C18-BC21-42C1-8188-73B8F41CFD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,19 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +565,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -589,14 +586,14 @@
       <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
@@ -611,15 +608,15 @@
       <c r="D2" s="1">
         <v>0.66300000000000003</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>117.09099999999999</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
@@ -634,40 +631,40 @@
       <c r="D3" s="1">
         <v>1.1240000000000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>94.013000000000005</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
-        <v>2.3E-2</v>
+      <c r="C4" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="E4" s="7">
-        <v>90.200999999999993</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E4" s="5">
+        <v>103.486</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
@@ -676,29 +673,29 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="1">
         <v>1.4059999999999999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>55.5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -707,23 +704,23 @@
       <c r="D6" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>132.84100000000001</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
@@ -732,17 +729,17 @@
       <c r="D7" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>140.67599999999999</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
@@ -757,17 +754,17 @@
       <c r="D8" s="1">
         <v>1.6379999999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>123.117</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
@@ -782,27 +779,27 @@
       <c r="D9" s="1">
         <v>0.35899999999999999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>143.74</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/tmp/IPARM_cons.xlsx
+++ b/tmp/IPARM_cons.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlam\Desktop\test\UNAL_Consolidacion\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9526567-7886-4146-AF2B-72611A260768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FEFC9A-E9C4-4B35-8BB0-A4A71BDE4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -539,7 +550,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
